--- a/teaching/traditional_assets/database/data/nigeria/nigeria_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0522</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="E2">
-        <v>-0.011</v>
+        <v>0.01535</v>
       </c>
       <c r="G2">
-        <v>0.08875973069640226</v>
+        <v>0.04434928430256933</v>
       </c>
       <c r="H2">
-        <v>0.08875973069640226</v>
+        <v>0.04434928430256933</v>
       </c>
       <c r="I2">
-        <v>0.1359825373448348</v>
+        <v>-0.0181829071090615</v>
       </c>
       <c r="J2">
-        <v>0.1096945383049617</v>
+        <v>-0.0181829071090615</v>
       </c>
       <c r="K2">
-        <v>26.366</v>
+        <v>-0.8829999999999995</v>
       </c>
       <c r="L2">
-        <v>0.1386808331580055</v>
+        <v>-0.005288375157213867</v>
       </c>
       <c r="M2">
-        <v>0.511</v>
+        <v>1.92</v>
       </c>
       <c r="N2">
-        <v>0.007458765143774633</v>
+        <v>0.02450229709035222</v>
       </c>
       <c r="O2">
-        <v>0.01938102101190928</v>
+        <v>-2.174405436013591</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.02450229709035222</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-2.174405436013591</v>
       </c>
       <c r="S2">
-        <v>0.511</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>86.304</v>
+        <v>107</v>
       </c>
       <c r="V2">
-        <v>1.259728506787331</v>
+        <v>1.365492598264421</v>
       </c>
       <c r="W2">
-        <v>0.05766129032258064</v>
+        <v>0.005511022044088177</v>
       </c>
       <c r="X2">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="Y2">
-        <v>-0.01845065358557763</v>
+        <v>-0.0702116419251544</v>
       </c>
       <c r="Z2">
-        <v>1.348866248545563</v>
+        <v>1.306474077087995</v>
       </c>
       <c r="AA2">
-        <v>0.1336336530982629</v>
+        <v>-0.0512</v>
       </c>
       <c r="AB2">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="AC2">
-        <v>0.05752170919010462</v>
+        <v>-0.1269226639692426</v>
       </c>
       <c r="AD2">
-        <v>34.006</v>
+        <v>28.246</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>34.006</v>
+        <v>28.246</v>
       </c>
       <c r="AG2">
-        <v>-52.298</v>
+        <v>-78.754</v>
       </c>
       <c r="AH2">
-        <v>0.3317140739006594</v>
+        <v>0.264956944262049</v>
       </c>
       <c r="AI2">
-        <v>0.1356680071492404</v>
+        <v>0.1203514333435593</v>
       </c>
       <c r="AJ2">
-        <v>-3.22588206266963</v>
+        <v>199.8832487309617</v>
       </c>
       <c r="AK2">
-        <v>-0.3182072624610592</v>
+        <v>-0.6167303596040598</v>
       </c>
       <c r="AL2">
-        <v>4.411</v>
+        <v>2.851</v>
       </c>
       <c r="AM2">
-        <v>3.944</v>
+        <v>2.846</v>
       </c>
       <c r="AN2">
-        <v>1.088958626873319</v>
+        <v>40.70028818443802</v>
       </c>
       <c r="AO2">
-        <v>5.861029245069145</v>
+        <v>-1.064889512451771</v>
       </c>
       <c r="AP2">
-        <v>-1.674714999359549</v>
+        <v>-113.4783861671469</v>
       </c>
       <c r="AQ2">
-        <v>6.555020283975659</v>
+        <v>-1.066760365425158</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Niger Insurance Plc (NGSE:NIGERINS)</t>
+          <t>Mutual Benefits Assurance Plc (NGSE:MBENEFIT)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,28 +725,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.138</v>
+        <v>0.0688</v>
       </c>
       <c r="E3">
-        <v>-0.011</v>
+        <v>0.0165</v>
       </c>
       <c r="G3">
-        <v>0.152054794520548</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="H3">
-        <v>0.152054794520548</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I3">
-        <v>0.1417808219178082</v>
+        <v>0.2080645161290323</v>
       </c>
       <c r="J3">
-        <v>0.1290284686615137</v>
+        <v>0.2080645161290323</v>
       </c>
       <c r="K3">
-        <v>1.63</v>
+        <v>8.84</v>
       </c>
       <c r="L3">
-        <v>0.1116438356164384</v>
+        <v>0.1425806451612903</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -770,52 +770,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>4.424778761061947</v>
+      </c>
+      <c r="W3">
+        <v>0.248314606741573</v>
       </c>
       <c r="X3">
-        <v>0.07611194390815827</v>
+        <v>0.2062167471654537</v>
+      </c>
+      <c r="Y3">
+        <v>0.04209785957611936</v>
+      </c>
+      <c r="Z3">
+        <v>1.839981006647673</v>
+      </c>
+      <c r="AA3">
+        <v>0.3828347578347578</v>
       </c>
       <c r="AB3">
-        <v>0.07611194390815827</v>
+        <v>0.09474630982475726</v>
+      </c>
+      <c r="AC3">
+        <v>0.2880884480100006</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-12.8</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.7372965792095649</v>
+      </c>
+      <c r="AI3">
+        <v>0.3053645116918844</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>2.617586912065439</v>
+      </c>
+      <c r="AK3">
+        <v>-0.3395225464190981</v>
       </c>
       <c r="AL3">
-        <v>0.274</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.274</v>
+        <v>-0.005</v>
       </c>
       <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>7.554744525547444</v>
+        <v>1.597122302158273</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-0.920863309352518</v>
       </c>
       <c r="AQ3">
-        <v>7.554744525547444</v>
+        <v>-2580</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cornerstone Insurance Plc (NGSE:CORNERST)</t>
+          <t>Royal Exchange Plc (NGSE:ROYALEX)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -835,28 +853,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.165</v>
-      </c>
-      <c r="E4">
-        <v>0.345</v>
+        <v>0.0365</v>
       </c>
       <c r="G4">
-        <v>0.04808362369337979</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="H4">
-        <v>0.04808362369337979</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="I4">
-        <v>0.2484320557491289</v>
+        <v>0.0574468085106383</v>
       </c>
       <c r="J4">
-        <v>0.2285574912891986</v>
+        <v>0.0574468085106383</v>
       </c>
       <c r="K4">
-        <v>14.1</v>
+        <v>-2.35</v>
       </c>
       <c r="L4">
-        <v>0.4912891986062718</v>
+        <v>-0.08333333333333334</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -865,7 +880,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -874,76 +889,79 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>14.9</v>
+        <v>13.9</v>
       </c>
       <c r="V4">
-        <v>0.8186813186813188</v>
+        <v>4.161676646706587</v>
       </c>
       <c r="W4">
-        <v>0.6527777777777777</v>
+        <v>-0.1715328467153285</v>
       </c>
       <c r="X4">
-        <v>0.07611194390815827</v>
+        <v>0.1553503126317717</v>
       </c>
       <c r="Y4">
-        <v>0.5766658338696194</v>
+        <v>-0.3268831593471002</v>
       </c>
       <c r="Z4">
-        <v>2.362139917695473</v>
+        <v>4.272727272727272</v>
       </c>
       <c r="AA4">
-        <v>0.5398847736625514</v>
+        <v>0.2454545454545454</v>
       </c>
       <c r="AB4">
-        <v>0.07611194390815827</v>
+        <v>0.09201259946821144</v>
       </c>
       <c r="AC4">
-        <v>0.4637728297543931</v>
+        <v>0.153441945986334</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="AG4">
-        <v>-14.9</v>
+        <v>-8.18</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.631346578366446</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.2148760330578512</v>
       </c>
       <c r="AJ4">
-        <v>-4.515151515151516</v>
+        <v>1.690082644628099</v>
       </c>
       <c r="AK4">
-        <v>-0.5843137254901961</v>
+        <v>-0.6430817610062893</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AM4">
-        <v>-0.004</v>
+        <v>1.79</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>2.874371859296482</v>
+      </c>
+      <c r="AO4">
+        <v>0.9050279329608939</v>
       </c>
       <c r="AP4">
-        <v>-1.950261780104712</v>
+        <v>-4.110552763819095</v>
       </c>
       <c r="AQ4">
-        <v>-1782.5</v>
+        <v>0.9050279329608939</v>
       </c>
     </row>
     <row r="5">
@@ -954,7 +972,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mutual Benefits Assurance Plc (NGSE:MBENEFIT)</t>
+          <t>Coronation Insurance Plc (NGSE:WAPIC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -962,23 +980,29 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.138</v>
+      </c>
+      <c r="E5">
+        <v>-0.0646</v>
+      </c>
       <c r="G5">
-        <v>0.110586011342155</v>
+        <v>-0.02900709219858156</v>
       </c>
       <c r="H5">
-        <v>0.110586011342155</v>
+        <v>-0.02900709219858156</v>
       </c>
       <c r="I5">
-        <v>0.1824196597353497</v>
+        <v>-0.07836879432624114</v>
       </c>
       <c r="J5">
-        <v>0.1644908605596437</v>
+        <v>-0.07836879432624114</v>
       </c>
       <c r="K5">
-        <v>8.26</v>
+        <v>0.275</v>
       </c>
       <c r="L5">
-        <v>0.1561436672967864</v>
+        <v>0.00975177304964539</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1002,70 +1026,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>20.6</v>
+        <v>7.24</v>
       </c>
       <c r="V5">
-        <v>3.355048859934854</v>
+        <v>0.2873015873015873</v>
       </c>
       <c r="W5">
-        <v>0.3560344827586207</v>
+        <v>0.005511022044088177</v>
       </c>
       <c r="X5">
-        <v>0.1974437591781569</v>
+        <v>0.07632415809296407</v>
       </c>
       <c r="Y5">
-        <v>0.1585907235804638</v>
+        <v>-0.07081313604887589</v>
       </c>
       <c r="Z5">
-        <v>2.204534089014836</v>
+        <v>0.6008181353332197</v>
       </c>
       <c r="AA5">
-        <v>0.3626257094351205</v>
+        <v>-0.04708539287540481</v>
       </c>
       <c r="AB5">
-        <v>0.09107378094336274</v>
+        <v>0.07601481865132141</v>
       </c>
       <c r="AC5">
-        <v>0.2715519284917577</v>
+        <v>-0.1231002115267262</v>
       </c>
       <c r="AD5">
-        <v>18.7</v>
+        <v>0.326</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>18.7</v>
+        <v>0.326</v>
       </c>
       <c r="AG5">
-        <v>-1.900000000000002</v>
+        <v>-6.914000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.7528180354267311</v>
+        <v>0.0127712920159837</v>
       </c>
       <c r="AI5">
-        <v>0.34</v>
+        <v>0.005083741384149956</v>
       </c>
       <c r="AJ5">
-        <v>-0.4481132075471706</v>
+        <v>-0.3781034671333261</v>
       </c>
       <c r="AK5">
-        <v>-0.05523255813953496</v>
+        <v>-0.1215413282705763</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.147</v>
       </c>
       <c r="AM5">
-        <v>-0.463</v>
+        <v>0.147</v>
       </c>
       <c r="AN5">
-        <v>1.598290598290598</v>
+        <v>-0.3333333333333334</v>
+      </c>
+      <c r="AO5">
+        <v>-15.03401360544218</v>
       </c>
       <c r="AP5">
-        <v>-0.1623931623931626</v>
+        <v>7.069529652351739</v>
       </c>
       <c r="AQ5">
-        <v>-20.84233261339093</v>
+        <v>-15.03401360544218</v>
       </c>
     </row>
     <row r="6">
@@ -1076,7 +1103,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Royal Exchange Plc (NGSE:ROYALEX)</t>
+          <t>Cornerstone Insurance Plc (NGSE:CORNERST)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1085,25 +1112,28 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0268</v>
+        <v>0.06519999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.17</v>
       </c>
       <c r="G6">
-        <v>0.1677966101694915</v>
+        <v>0.2932735426008968</v>
       </c>
       <c r="H6">
-        <v>0.1677966101694915</v>
+        <v>0.2932735426008968</v>
       </c>
       <c r="I6">
-        <v>0.1854237288135593</v>
+        <v>-0.05739910313901345</v>
       </c>
       <c r="J6">
-        <v>0.09271186440677966</v>
+        <v>-0.05739910313901345</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>5.7</v>
       </c>
       <c r="L6">
-        <v>-0.03389830508474576</v>
+        <v>0.2556053811659193</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1112,7 +1142,7 @@
         <v>-0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1121,79 +1151,73 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>22.4</v>
+        <v>33.2</v>
       </c>
       <c r="V6">
-        <v>5.517241379310345</v>
+        <v>1.189964157706093</v>
       </c>
       <c r="W6">
-        <v>-0.06535947712418301</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="X6">
-        <v>0.226241726976231</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="Y6">
-        <v>-0.291601204100414</v>
+        <v>0.06713447888790029</v>
       </c>
       <c r="Z6">
-        <v>2.97979797979798</v>
+        <v>0.892</v>
       </c>
       <c r="AA6">
-        <v>0.2762626262626263</v>
+        <v>-0.0512</v>
       </c>
       <c r="AB6">
-        <v>0.09392066990172662</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="AC6">
-        <v>0.1823419563608996</v>
+        <v>-0.1269226639692426</v>
       </c>
       <c r="AD6">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-7.099999999999998</v>
+        <v>-33.2</v>
       </c>
       <c r="AH6">
-        <v>0.7902892561983471</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.5275862068965518</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>2.335526315789474</v>
+        <v>6.264150943396221</v>
       </c>
       <c r="AK6">
-        <v>-1.075757575757575</v>
+        <v>-3.353535353535354</v>
       </c>
       <c r="AL6">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>2.651646447140382</v>
-      </c>
-      <c r="AO6">
-        <v>1.384810126582278</v>
+        <v>-0</v>
       </c>
       <c r="AP6">
-        <v>-1.230502599653379</v>
-      </c>
-      <c r="AQ6">
-        <v>1.384810126582278</v>
+        <v>42.61874197689345</v>
       </c>
     </row>
     <row r="7">
@@ -1212,71 +1236,80 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.152</v>
+      </c>
+      <c r="E7">
+        <v>0.0142</v>
+      </c>
       <c r="G7">
-        <v>0.1333333333333333</v>
+        <v>0.0483009708737864</v>
       </c>
       <c r="H7">
-        <v>0.1333333333333333</v>
+        <v>0.0483009708737864</v>
       </c>
       <c r="I7">
-        <v>0.1338383838383838</v>
+        <v>-0.04009708737864077</v>
       </c>
       <c r="J7">
-        <v>0.1077168234064786</v>
+        <v>-0.04009708737864077</v>
       </c>
       <c r="K7">
-        <v>2.34</v>
+        <v>1.38</v>
       </c>
       <c r="L7">
-        <v>0.1181818181818182</v>
+        <v>0.06699029126213592</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>1.92</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.2852897473997028</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>1.391304347826087</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>1.92</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.2852897473997028</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>1.391304347826087</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>12.1</v>
+        <v>16.2</v>
       </c>
       <c r="V7">
-        <v>2.391304347826087</v>
+        <v>2.407132243684992</v>
       </c>
       <c r="W7">
-        <v>0.1017391304347826</v>
+        <v>0.05476190476190476</v>
       </c>
       <c r="X7">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="Y7">
-        <v>0.02562718652662432</v>
+        <v>-0.02096075920733782</v>
       </c>
       <c r="Z7">
-        <v>1.240601503759398</v>
+        <v>1.572519083969466</v>
       </c>
       <c r="AA7">
-        <v>0.1336336530982629</v>
+        <v>-0.06305343511450381</v>
       </c>
       <c r="AB7">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="AC7">
-        <v>0.05752170919010462</v>
+        <v>-0.1387760990837464</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1288,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>-12.1</v>
+        <v>-16.2</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1297,28 +1330,28 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1.71875</v>
+        <v>1.710665258711721</v>
       </c>
       <c r="AK7">
-        <v>-0.9236641221374046</v>
+        <v>-2.492307692307692</v>
       </c>
       <c r="AL7">
-        <v>0.02</v>
+        <v>0.107</v>
       </c>
       <c r="AM7">
-        <v>0.02</v>
+        <v>0.107</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO7">
-        <v>132.5</v>
+        <v>-7.719626168224298</v>
       </c>
       <c r="AP7">
-        <v>-3.928571428571428</v>
+        <v>30.2803738317757</v>
       </c>
       <c r="AQ7">
-        <v>132.5</v>
+        <v>-7.719626168224298</v>
       </c>
     </row>
     <row r="8">
@@ -1329,7 +1362,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Law Union and Rock Insurance Plc (NGSE:LAWUNION)</t>
+          <t>Guinea Insurance Plc (NGSE:GUINEAINS)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1338,28 +1371,25 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.065</v>
-      </c>
-      <c r="E8">
-        <v>-0.253</v>
+        <v>-0.0292</v>
       </c>
       <c r="G8">
-        <v>0.07369747899159663</v>
+        <v>-0.1686131386861314</v>
       </c>
       <c r="H8">
-        <v>0.07369747899159663</v>
+        <v>-0.1686131386861314</v>
       </c>
       <c r="I8">
-        <v>0.006722689075630252</v>
+        <v>-0.1970802919708029</v>
       </c>
       <c r="J8">
-        <v>0.003361344537815126</v>
+        <v>-0.1970802919708029</v>
       </c>
       <c r="K8">
-        <v>0.233</v>
+        <v>-0.528</v>
       </c>
       <c r="L8">
-        <v>0.01957983193277311</v>
+        <v>-0.1927007299270073</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1368,7 +1398,7 @@
         <v>-0</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>-0</v>
@@ -1377,37 +1407,37 @@
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>8.779999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="V8">
-        <v>1.480607082630691</v>
+        <v>0.4534161490683229</v>
       </c>
       <c r="W8">
-        <v>0.0123936170212766</v>
+        <v>-0.08186046511627908</v>
       </c>
       <c r="X8">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="Y8">
-        <v>-0.06371832688688167</v>
+        <v>-0.1575831290855217</v>
       </c>
       <c r="Z8">
-        <v>1.206896551724138</v>
+        <v>1.109311740890688</v>
       </c>
       <c r="AA8">
-        <v>0.004056795131845842</v>
+        <v>-0.2186234817813765</v>
       </c>
       <c r="AB8">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="AC8">
-        <v>-0.07205514877631243</v>
+        <v>-0.2943461457506191</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1419,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>-8.779999999999999</v>
+        <v>-1.46</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1428,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>3.080701754385965</v>
+        <v>-0.8295454545454544</v>
       </c>
       <c r="AK8">
-        <v>-0.922268907563025</v>
+        <v>-0.3659147869674185</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1440,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP8">
-        <v>-34.56692913385827</v>
+        <v>3.613861386138614</v>
       </c>
     </row>
     <row r="9">
@@ -1454,7 +1484,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Universal Insurance Plc (NGSE:UNIVINSURE)</t>
+          <t>Niger Insurance Plc (NGSE:NIGERINS)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1462,23 +1492,26 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D9">
+        <v>-0.367</v>
+      </c>
       <c r="G9">
-        <v>0.03515625</v>
+        <v>-4.266211604095563</v>
       </c>
       <c r="H9">
-        <v>0.03515625</v>
+        <v>-4.266211604095563</v>
       </c>
       <c r="I9">
-        <v>0.0279296875</v>
+        <v>-4.334470989761091</v>
       </c>
       <c r="J9">
-        <v>0.02020795036764706</v>
+        <v>-4.334470989761091</v>
       </c>
       <c r="K9">
-        <v>0.123</v>
+        <v>-14.2</v>
       </c>
       <c r="L9">
-        <v>0.0240234375</v>
+        <v>-4.846416382252559</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1487,7 +1520,7 @@
         <v>-0</v>
       </c>
       <c r="O9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>-0</v>
@@ -1496,37 +1529,22 @@
         <v>-0</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.574</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.06485875706214689</v>
-      </c>
-      <c r="W9">
-        <v>0.004694656488549618</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.07611194390815827</v>
-      </c>
-      <c r="Y9">
-        <v>-0.07141728741960865</v>
-      </c>
-      <c r="Z9">
-        <v>0.1991752898156073</v>
-      </c>
-      <c r="AA9">
-        <v>0.00402492437105551</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="AB9">
-        <v>0.07611194390815827</v>
-      </c>
-      <c r="AC9">
-        <v>-0.07208701953710277</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1538,281 +1556,31 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>-0.574</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
       <c r="AJ9">
-        <v>-0.06935717738037699</v>
-      </c>
-      <c r="AK9">
-        <v>-0.02222566405947495</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AO9">
+        <v>-15.73729863692689</v>
       </c>
       <c r="AP9">
-        <v>-1.616901408450704</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Wapic Insurance Plc (NGSE:WAPIC)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="G10">
-        <v>-0.04625000000000001</v>
-      </c>
-      <c r="H10">
-        <v>-0.04625000000000001</v>
-      </c>
-      <c r="I10">
-        <v>-0.04129166666666666</v>
-      </c>
-      <c r="J10">
-        <v>-0.04129166666666666</v>
-      </c>
-      <c r="K10">
-        <v>2.86</v>
-      </c>
-      <c r="L10">
-        <v>0.1191666666666667</v>
-      </c>
-      <c r="M10">
-        <v>-0</v>
-      </c>
-      <c r="N10">
-        <v>-0</v>
-      </c>
-      <c r="O10">
-        <v>-0</v>
-      </c>
-      <c r="P10">
-        <v>-0</v>
-      </c>
-      <c r="Q10">
-        <v>-0</v>
-      </c>
-      <c r="R10">
-        <v>-0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>2.97</v>
-      </c>
-      <c r="V10">
-        <v>0.2357142857142857</v>
-      </c>
-      <c r="W10">
-        <v>0.05766129032258064</v>
-      </c>
-      <c r="X10">
-        <v>0.07613091455612767</v>
-      </c>
-      <c r="Y10">
-        <v>-0.01846962423354703</v>
-      </c>
-      <c r="Z10">
-        <v>0.6585084782966582</v>
-      </c>
-      <c r="AA10">
-        <v>-0.02719091258299951</v>
-      </c>
-      <c r="AB10">
-        <v>0.07612266948655498</v>
-      </c>
-      <c r="AC10">
-        <v>-0.1033135820695545</v>
-      </c>
-      <c r="AD10">
-        <v>0.006</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0.006</v>
-      </c>
-      <c r="AG10">
-        <v>-2.964</v>
-      </c>
-      <c r="AH10">
-        <v>0.0004759638267491671</v>
-      </c>
-      <c r="AI10">
-        <v>0.0001202260249268625</v>
-      </c>
-      <c r="AJ10">
-        <v>-0.3075965130759652</v>
-      </c>
-      <c r="AK10">
-        <v>-0.06314982103289586</v>
-      </c>
-      <c r="AL10">
-        <v>0.167</v>
-      </c>
-      <c r="AM10">
-        <v>0.167</v>
-      </c>
-      <c r="AN10">
-        <v>0.01354401805869074</v>
-      </c>
-      <c r="AO10">
-        <v>-5.934131736526946</v>
-      </c>
-      <c r="AP10">
-        <v>-6.690744920993229</v>
-      </c>
-      <c r="AQ10">
-        <v>-5.934131736526946</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Guinea Insurance Plc (NGSE:GUINEAINS)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>0.0522</v>
-      </c>
-      <c r="G11">
-        <v>-0.03111111111111111</v>
-      </c>
-      <c r="H11">
-        <v>-0.03111111111111111</v>
-      </c>
-      <c r="I11">
-        <v>-0.09694444444444443</v>
-      </c>
-      <c r="J11">
-        <v>-0.09694444444444443</v>
-      </c>
-      <c r="K11">
-        <v>-2.18</v>
-      </c>
-      <c r="L11">
-        <v>-0.6055555555555556</v>
-      </c>
-      <c r="M11">
-        <v>0.511</v>
-      </c>
-      <c r="N11">
-        <v>0.1507374631268437</v>
-      </c>
-      <c r="O11">
-        <v>-0.2344036697247706</v>
-      </c>
-      <c r="P11">
-        <v>-0</v>
-      </c>
-      <c r="Q11">
-        <v>-0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0.511</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>3.98</v>
-      </c>
-      <c r="V11">
-        <v>1.174041297935103</v>
-      </c>
-      <c r="W11">
-        <v>-0.243847874720358</v>
-      </c>
-      <c r="X11">
-        <v>0.07611194390815827</v>
-      </c>
-      <c r="Y11">
-        <v>-0.3199598186285162</v>
-      </c>
-      <c r="Z11">
-        <v>0.5194805194805195</v>
-      </c>
-      <c r="AA11">
-        <v>-0.05036075036075036</v>
-      </c>
-      <c r="AB11">
-        <v>0.07611194390815827</v>
-      </c>
-      <c r="AC11">
-        <v>-0.1264726942689086</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>-3.98</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>6.745762711864408</v>
-      </c>
-      <c r="AK11">
-        <v>-1.611336032388664</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>-0</v>
-      </c>
-      <c r="AP11">
-        <v>17.00854700854701</v>
+        <v>-0</v>
+      </c>
+      <c r="AQ9">
+        <v>-15.73729863692689</v>
       </c>
     </row>
   </sheetData>
